--- a/Упражнения ИРДН/Упражнения_ИРДН_фонтан.xlsx
+++ b/Упражнения ИРДН/Упражнения_ИРДН_фонтан.xlsx
@@ -11,6 +11,9 @@
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId2"/>
     <sheet name="Фонтан" sheetId="102" state="hidden" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
     <definedName name="Bob_" localSheetId="0">Упражнения!$C$13</definedName>
@@ -28,16 +31,19 @@
     <definedName name="Hpump_" localSheetId="0">Упражнения!$C$19</definedName>
     <definedName name="Kdegr_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="KsepGasSep_" localSheetId="0">Упражнения!#REF!</definedName>
-    <definedName name="N_" localSheetId="0">Упражнения!$C$34</definedName>
+    <definedName name="N_" localSheetId="0">Упражнения!$C$36</definedName>
     <definedName name="NumStage_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="Pb_" localSheetId="0">Упражнения!$C$11</definedName>
     <definedName name="Pbuf_" localSheetId="0">Упражнения!$C$24</definedName>
-    <definedName name="Pdis_" localSheetId="0">Упражнения!$C$29</definedName>
-    <definedName name="PI_" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Pdis_" localSheetId="0">Упражнения!$C$28</definedName>
+    <definedName name="PI_" localSheetId="0">Упражнения!$C$34</definedName>
+    <definedName name="PI_1">Упражнения!$B$77</definedName>
     <definedName name="Pintake_" localSheetId="0">Упражнения!$C$25</definedName>
-    <definedName name="Pres_" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Pres_" localSheetId="0">Упражнения!$C$33</definedName>
     <definedName name="PumpID_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="Pwf_" localSheetId="0">Упражнения!$C$27</definedName>
+    <definedName name="Pwf_1">Упражнения!$B$74</definedName>
+    <definedName name="Pwf_test">Упражнения!$C$18</definedName>
     <definedName name="Pwf1_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="Pбуф__атм">Фонтан!$B$14</definedName>
     <definedName name="Pбуф_расч__атм">Фонтан!$E$14</definedName>
@@ -49,10 +55,13 @@
     <definedName name="Pлин_расч__атм">Фонтан!$E$13</definedName>
     <definedName name="Pнас__атм">Фонтан!$B$29</definedName>
     <definedName name="Pпласт__атм">Фонтан!$B$19</definedName>
-    <definedName name="Q_" localSheetId="0">Упражнения!$C$28</definedName>
+    <definedName name="Q_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="Q_ESP_" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Q_test">Упражнения!$C$17</definedName>
     <definedName name="Qmax" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Qmax_">Упражнения!$F$73</definedName>
     <definedName name="Qreal_" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Qtest_">Упражнения!$C$39</definedName>
     <definedName name="Qж__м3_сут">Фонтан!$B$9</definedName>
     <definedName name="Qж_расч__м3_сут">Фонтан!$E$9</definedName>
     <definedName name="Qн__т_сут">Фонтан!$B$10</definedName>
@@ -132,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="344">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1104,9 +1113,6 @@
     <t>Давление на забое</t>
   </si>
   <si>
-    <t>Дебит скважины</t>
-  </si>
-  <si>
     <t>Давление на выкиде</t>
   </si>
   <si>
@@ -1128,7 +1134,46 @@
     <t>P снизу вверх</t>
   </si>
   <si>
-    <t>Упражнение</t>
+    <t>Упражнение 1</t>
+  </si>
+  <si>
+    <t>Упражнение 2</t>
+  </si>
+  <si>
+    <t>Построить кривые IPR и VLP для заданных дебитов</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>Пластовое давление</t>
+  </si>
+  <si>
+    <t>Коэффициет продуктивности</t>
+  </si>
+  <si>
+    <t>м3/сут/атм</t>
+  </si>
+  <si>
+    <t>Измеренное значение дебита</t>
+  </si>
+  <si>
+    <t>Забойное давление для измеренного дебита</t>
+  </si>
+  <si>
+    <t>Рзаб</t>
+  </si>
+  <si>
+    <t>Кпрод</t>
+  </si>
+  <si>
+    <t>Pwf (IPR)</t>
+  </si>
+  <si>
+    <t>Pwf (VLP)</t>
+  </si>
+  <si>
+    <t>м3/сут/ат</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1293,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,6 +1345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,7 +1799,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1936,6 +1987,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2473,11 +2547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298631744"/>
-        <c:axId val="298632320"/>
+        <c:axId val="296206912"/>
+        <c:axId val="296207488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298631744"/>
+        <c:axId val="296206912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,12 +2649,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298632320"/>
+        <c:crossAx val="296207488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298632320"/>
+        <c:axId val="296207488"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2678,7 +2752,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298631744"/>
+        <c:crossAx val="296206912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2799,7 +2873,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3064,11 +3137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298635200"/>
-        <c:axId val="298635776"/>
+        <c:axId val="296210368"/>
+        <c:axId val="296210944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298635200"/>
+        <c:axId val="296210368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3192,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3166,12 +3238,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298635776"/>
+        <c:crossAx val="296210944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298635776"/>
+        <c:axId val="296210944"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3222,7 +3294,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3269,7 +3340,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298635200"/>
+        <c:crossAx val="296210368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3283,7 +3354,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3351,6 +3421,618 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IPR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> и</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> VLP</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1202988191978465E-2"/>
+          <c:y val="6.322237510368435E-2"/>
+          <c:w val="0.79459995901803337"/>
+          <c:h val="0.70531459280289899"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IPR</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$E$77:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$F$77:$F$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>VLP1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$E$77:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$G$77:$G$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>VLP2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$E$77:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$H$77:$H$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="296213248"/>
+        <c:axId val="296213824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="296213248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м3/сут</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39625196877125629"/>
+              <c:y val="0.86477093200508615"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296213824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="296213824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Давление на забое, атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296213248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3758,11 +4440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145809984"/>
-        <c:axId val="145810560"/>
+        <c:axId val="296938880"/>
+        <c:axId val="296939456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145809984"/>
+        <c:axId val="296938880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3807,12 +4489,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145810560"/>
+        <c:crossAx val="296939456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145810560"/>
+        <c:axId val="296939456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -3857,7 +4539,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145809984"/>
+        <c:crossAx val="296938880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3934,7 +4616,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4388,11 +5070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145812288"/>
-        <c:axId val="145812864"/>
+        <c:axId val="296941184"/>
+        <c:axId val="296941760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145812288"/>
+        <c:axId val="296941184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4437,12 +5119,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145812864"/>
+        <c:crossAx val="296941760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145812864"/>
+        <c:axId val="296941760"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -4487,7 +5169,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145812288"/>
+        <c:crossAx val="296941184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4564,7 +5246,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4969,11 +5651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145814592"/>
-        <c:axId val="145815168"/>
+        <c:axId val="296886272"/>
+        <c:axId val="296886848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145814592"/>
+        <c:axId val="296886272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5018,12 +5700,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145815168"/>
+        <c:crossAx val="296886848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145815168"/>
+        <c:axId val="296886848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5068,7 +5750,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145814592"/>
+        <c:crossAx val="296886272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6450,6 +7132,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369095</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508468</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>129901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7055,6 +7769,26 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="База насосов"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="UniflocVBA7.3"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="IPR_PI_sm3dayatm"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -7357,8 +8091,8 @@
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7366,9 +8100,10 @@
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
@@ -7487,7 +8222,7 @@
         <v>139</v>
       </c>
       <c r="C14" s="54">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>293</v>
@@ -7630,31 +8365,21 @@
         <v>323</v>
       </c>
       <c r="C28" s="54">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="54">
-        <v>150</v>
-      </c>
-      <c r="D29" s="53" t="s">
         <v>291</v>
       </c>
     </row>
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="54">
         <v>3</v>
@@ -7663,34 +8388,78 @@
         <v>297</v>
       </c>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="54">
+        <v>250</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="70" t="e">
+        <f ca="1">[1]!IPR_PI_sm3dayatm(Qtest_,Pwf_,Pres_,wc_,Pb_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C36" s="54">
         <v>20</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>331</v>
-      </c>
+      <c r="A38" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="52"/>
     </row>
     <row r="39" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="54">
+        <v>100</v>
+      </c>
+      <c r="D39" s="69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="72"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="73"/>
+    </row>
+    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -7702,10 +8471,10 @@
         <v>299</v>
       </c>
       <c r="E47" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" s="63" t="s">
         <v>329</v>
-      </c>
-      <c r="J47" s="63" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7917,7 +8686,7 @@
       <c r="E64" s="62"/>
       <c r="J64" s="62"/>
     </row>
-    <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="64">
         <f t="shared" si="1"/>
         <v>1700</v>
@@ -7929,7 +8698,7 @@
       <c r="E65" s="62"/>
       <c r="J65" s="62"/>
     </row>
-    <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="64">
         <f t="shared" si="1"/>
         <v>1800</v>
@@ -7941,7 +8710,7 @@
       <c r="E66" s="62"/>
       <c r="J66" s="62"/>
     </row>
-    <row r="67" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="64">
         <f t="shared" si="1"/>
         <v>1900</v>
@@ -7953,7 +8722,7 @@
       <c r="E67" s="62"/>
       <c r="J67" s="62"/>
     </row>
-    <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="64">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -7966,11 +8735,372 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>338</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="F73" s="53"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="77">
+        <f>E68</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H75" s="53"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>335</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="G76" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="H76" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="I76" s="78"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" s="77"/>
+      <c r="C77" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="76">
+        <v>0</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="71"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E78" s="76">
+        <f t="shared" ref="E78:E97" si="2">E77+Qmax_/N_</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="71"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E79" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="71"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E80" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="71"/>
+    </row>
+    <row r="81" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E81" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="71"/>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E82" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="71"/>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E83" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="71"/>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E84" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="71"/>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E85" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="71"/>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E86" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="71"/>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E87" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="71"/>
+    </row>
+    <row r="88" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E88" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="71"/>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E89" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="71"/>
+    </row>
+    <row r="90" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E90" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="71"/>
+    </row>
+    <row r="91" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E91" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="62"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="71"/>
+    </row>
+    <row r="92" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E92" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="71"/>
+    </row>
+    <row r="93" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E93" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="71"/>
+    </row>
+    <row r="94" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E94" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="71"/>
+    </row>
+    <row r="95" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E95" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="71"/>
+    </row>
+    <row r="96" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E96" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="71"/>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E97" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="71"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C98" s="65"/>
+      <c r="G98" s="71"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C99" s="65"/>
+      <c r="G99" s="71"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C100" s="65"/>
+      <c r="G100" s="71"/>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C101" s="65"/>
+      <c r="G101" s="71"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C102" s="65"/>
+      <c r="G102" s="71"/>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C103" s="65"/>
+      <c r="G103" s="71"/>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C104" s="65"/>
+      <c r="G104" s="71"/>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C105" s="65"/>
+      <c r="G105" s="71"/>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C106" s="65"/>
+      <c r="G106" s="71"/>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C107" s="65"/>
+      <c r="G107" s="71"/>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C108" s="65"/>
+      <c r="G108" s="71"/>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C109" s="65"/>
+      <c r="G109" s="71"/>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C110" s="65"/>
+      <c r="G110" s="71"/>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C111" s="65"/>
+      <c r="G111" s="71"/>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C112" s="65"/>
+      <c r="G112" s="71"/>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C113" s="65"/>
+      <c r="G113" s="71"/>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C114" s="65"/>
+      <c r="G114" s="71"/>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C115" s="65"/>
+      <c r="G115" s="71"/>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C116" s="65"/>
+      <c r="G116" s="71"/>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C117" s="65"/>
+      <c r="G117" s="71"/>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C118" s="65"/>
+      <c r="G118" s="71"/>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C119" s="65"/>
+      <c r="G119" s="71"/>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C120" s="65"/>
+      <c r="G120" s="71"/>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K126" t="s">
         <v>301</v>
       </c>
@@ -8021,29 +9151,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="V2" s="69" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="V2" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
     </row>
     <row r="3" spans="2:25" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -63780,15 +64910,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="102">
+      <c r="K1" s="109"/>
+      <c r="L1" s="113">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="103"/>
+      <c r="M1" s="114"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -63800,15 +64930,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="75">
+      <c r="K2" s="111"/>
+      <c r="L2" s="86">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="101"/>
+      <c r="M2" s="112"/>
       <c r="T2" s="20" t="s">
         <v>20</v>
       </c>
@@ -63822,31 +64952,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="88">
         <v>1</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -63855,14 +64985,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="D8" s="83" t="s">
+      <c r="B8" s="95"/>
+      <c r="D8" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="84"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -63973,10 +65103,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="97"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -64004,10 +65134,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="86"/>
+      <c r="B23" s="97"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -64129,99 +65259,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="89" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="92" t="s">
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="93"/>
-      <c r="L42" s="104" t="s">
+      <c r="J42" s="104"/>
+      <c r="L42" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104" t="s">
+      <c r="M42" s="115"/>
+      <c r="N42" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104" t="s">
+      <c r="O42" s="115"/>
+      <c r="P42" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104" t="s">
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="104"/>
-      <c r="T42" s="104" t="s">
+      <c r="S42" s="115"/>
+      <c r="T42" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="104"/>
-      <c r="V42" s="104" t="s">
+      <c r="U42" s="115"/>
+      <c r="V42" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="104"/>
-      <c r="X42" s="104" t="s">
+      <c r="W42" s="115"/>
+      <c r="X42" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="104"/>
-      <c r="Z42" s="104" t="s">
+      <c r="Y42" s="115"/>
+      <c r="Z42" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="104" t="s">
+      <c r="AA42" s="115"/>
+      <c r="AB42" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="104"/>
-      <c r="AD42" s="104" t="s">
+      <c r="AC42" s="115"/>
+      <c r="AD42" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="104"/>
-      <c r="AF42" s="104" t="s">
+      <c r="AE42" s="115"/>
+      <c r="AF42" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="104"/>
-      <c r="AH42" s="104" t="s">
+      <c r="AG42" s="115"/>
+      <c r="AH42" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="104"/>
-      <c r="AJ42" s="104" t="s">
+      <c r="AI42" s="115"/>
+      <c r="AJ42" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="104"/>
-      <c r="AL42" s="104"/>
-      <c r="AM42" s="104"/>
-      <c r="AN42" s="104"/>
-      <c r="AO42" s="104"/>
-      <c r="AP42" s="104"/>
-      <c r="AQ42" s="104"/>
-      <c r="AR42" s="104"/>
-      <c r="AS42" s="104"/>
+      <c r="AK42" s="115"/>
+      <c r="AL42" s="115"/>
+      <c r="AM42" s="115"/>
+      <c r="AN42" s="115"/>
+      <c r="AO42" s="115"/>
+      <c r="AP42" s="115"/>
+      <c r="AQ42" s="115"/>
+      <c r="AR42" s="115"/>
+      <c r="AS42" s="115"/>
       <c r="AT42" s="22"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="72" t="s">
+      <c r="A43" s="83"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="72" t="s">
+      <c r="D43" s="84"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="95"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="106"/>
       <c r="L43" s="22" t="s">
         <v>15</v>
       </c>
@@ -64317,17 +65447,17 @@
       <c r="B44" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="88"/>
+      <c r="D44" s="99"/>
       <c r="E44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="88"/>
+      <c r="G44" s="99"/>
       <c r="H44" s="9" t="s">
         <v>65</v>
       </c>

--- a/Упражнения ИРДН/Упражнения_ИРДН_фонтан.xlsx
+++ b/Упражнения ИРДН/Упражнения_ИРДН_фонтан.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="345">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1175,6 +1175,9 @@
   <si>
     <t>м3/сут/ат</t>
   </si>
+  <si>
+    <t>ГФ</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1296,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,6 +1354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,7 +1808,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2010,16 +2019,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2028,11 +2085,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2072,55 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2547,11 +2560,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296206912"/>
-        <c:axId val="296207488"/>
+        <c:axId val="297321024"/>
+        <c:axId val="297321600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296206912"/>
+        <c:axId val="297321024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,12 +2662,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296207488"/>
+        <c:crossAx val="297321600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296207488"/>
+        <c:axId val="297321600"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2752,7 +2765,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296206912"/>
+        <c:crossAx val="297321024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2834,593 +2847,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Распределение давления</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Упражнения!$J$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P снизу вверх</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Упражнения!$N$48:$N$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Упражнения!$C$48:$C$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5EFE-46E5-A745-7E9ECF416951}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Упражнения!$M$48:$M$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Упражнения!$C$48:$C$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5EFE-46E5-A745-7E9ECF416951}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="296210368"/>
-        <c:axId val="296210944"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="296210368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Давление,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> атм</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="296210944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="296210944"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Глубина,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> м</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="296210368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3770,11 +3196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296213248"/>
-        <c:axId val="296213824"/>
+        <c:axId val="297327360"/>
+        <c:axId val="297327936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296213248"/>
+        <c:axId val="297327360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,12 +3305,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296213824"/>
+        <c:crossAx val="297327936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296213824"/>
+        <c:axId val="297327936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +3404,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296213248"/>
+        <c:crossAx val="297327360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3995,6 +3421,504 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+              <a:t> давления на забое от ГФ для разных обводненностей</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16469648060649439"/>
+          <c:y val="7.5097241037879348E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1963857295924638E-2"/>
+          <c:y val="0.18752125682155366"/>
+          <c:w val="0.85311442978860696"/>
+          <c:h val="0.70531459280289899"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$F$107:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$G$107:$G$127</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$F$107:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$H$107:$H$127</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="298051264"/>
+        <c:axId val="298051840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="298051264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Газовый фактор,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> м3/м3</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39163245136816122"/>
+              <c:y val="0.94504729311454316"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298051840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="298051840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Давление на забое, атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298051264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4440,11 +4364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296938880"/>
-        <c:axId val="296939456"/>
+        <c:axId val="298055296"/>
+        <c:axId val="298055872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296938880"/>
+        <c:axId val="298055296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4489,12 +4413,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296939456"/>
+        <c:crossAx val="298055872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296939456"/>
+        <c:axId val="298055872"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -4539,7 +4463,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296938880"/>
+        <c:crossAx val="298055296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5070,11 +4994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296941184"/>
-        <c:axId val="296941760"/>
+        <c:axId val="145793024"/>
+        <c:axId val="145793600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296941184"/>
+        <c:axId val="145793024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5119,12 +5043,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296941760"/>
+        <c:crossAx val="145793600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296941760"/>
+        <c:axId val="145793600"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -5169,7 +5093,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296941184"/>
+        <c:crossAx val="145793024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5651,11 +5575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296886272"/>
-        <c:axId val="296886848"/>
+        <c:axId val="145795328"/>
+        <c:axId val="145795904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296886272"/>
+        <c:axId val="145795328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5700,12 +5624,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296886848"/>
+        <c:crossAx val="145795904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296886848"/>
+        <c:axId val="145795904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5750,7 +5674,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296886272"/>
+        <c:crossAx val="145795328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5867,563 +5791,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7003,16 +6371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>909636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>247652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>78921</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428623</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7021,8 +6389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16211550" y="26565225"/>
-          <a:ext cx="5181600" cy="3955596"/>
+          <a:off x="6922292" y="2069308"/>
+          <a:ext cx="5162550" cy="4057989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7102,20 +6470,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369095</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508468</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>129901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Диаграмма 19"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7135,19 +6503,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>369095</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>508468</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>129901</xdr:rowOff>
+      <xdr:colOff>139373</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>70370</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8078,10 +7446,296 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8091,8 +7745,8 @@
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8403,9 +8057,9 @@
       <c r="B34" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="C34" s="70" t="e">
-        <f ca="1">[1]!IPR_PI_sm3dayatm(Qtest_,Pwf_,Pres_,wc_,Pb_)</f>
-        <v>#NAME?</v>
+      <c r="C34" s="70">
+        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,wc_,Pb_)</f>
+        <v>0</v>
       </c>
       <c r="D34" s="53" t="s">
         <v>336</v>
@@ -8754,7 +8408,7 @@
       <c r="E73" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="F73" s="53"/>
+      <c r="F73" s="79"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="53" t="s">
@@ -9034,76 +8688,208 @@
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" s="65"/>
-      <c r="G104" s="71"/>
+      <c r="H104" s="53" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" s="65"/>
-      <c r="G105" s="71"/>
+      <c r="H105" s="53"/>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" s="65"/>
-      <c r="G106" s="71"/>
+      <c r="F106" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="G106" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="H106" s="75" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C107" s="65"/>
-      <c r="G107" s="71"/>
+      <c r="F107" s="80">
+        <v>10</v>
+      </c>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C108" s="65"/>
-      <c r="G108" s="71"/>
+      <c r="F108" s="80">
+        <v>50</v>
+      </c>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C109" s="65"/>
-      <c r="G109" s="71"/>
+      <c r="F109" s="80">
+        <f>F108+50</f>
+        <v>100</v>
+      </c>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C110" s="65"/>
-      <c r="G110" s="71"/>
+      <c r="F110" s="80">
+        <f t="shared" ref="F110:F127" si="3">F109+50</f>
+        <v>150</v>
+      </c>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62"/>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C111" s="65"/>
-      <c r="G111" s="71"/>
+      <c r="F111" s="80">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C112" s="65"/>
-      <c r="G112" s="71"/>
+      <c r="F112" s="80">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C113" s="65"/>
-      <c r="G113" s="71"/>
+      <c r="F113" s="80">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C114" s="65"/>
-      <c r="G114" s="71"/>
+      <c r="F114" s="80">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C115" s="65"/>
-      <c r="G115" s="71"/>
+      <c r="F115" s="80">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C116" s="65"/>
-      <c r="G116" s="71"/>
+      <c r="F116" s="80">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="G116" s="62"/>
+      <c r="H116" s="62"/>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C117" s="65"/>
-      <c r="G117" s="71"/>
+      <c r="F117" s="80">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="G117" s="62"/>
+      <c r="H117" s="62"/>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C118" s="65"/>
-      <c r="G118" s="71"/>
+      <c r="F118" s="80">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="G118" s="62"/>
+      <c r="H118" s="62"/>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C119" s="65"/>
-      <c r="G119" s="71"/>
+      <c r="F119" s="80">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C120" s="65"/>
-      <c r="G120" s="71"/>
+      <c r="F120" s="80">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="G120" s="62"/>
+      <c r="H120" s="62"/>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F121" s="80">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="G121" s="62"/>
+      <c r="H121" s="62"/>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F122" s="80">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="G122" s="62"/>
+      <c r="H122" s="62"/>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F123" s="80">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="G123" s="62"/>
+      <c r="H123" s="62"/>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F124" s="80">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="G124" s="62"/>
+      <c r="H124" s="62"/>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F125" s="80">
+        <f>F124+50</f>
+        <v>900</v>
+      </c>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F126" s="80">
+        <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
       <c r="K126" t="s">
         <v>301</v>
       </c>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F127" s="80">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G127" s="62"/>
+      <c r="H127" s="62"/>
     </row>
     <row r="137" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K137" s="67"/>
@@ -9151,29 +8937,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="V2" s="80" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="V2" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
     </row>
     <row r="3" spans="2:25" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -64910,15 +64696,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="113">
+      <c r="K1" s="85"/>
+      <c r="L1" s="90">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="114"/>
+      <c r="M1" s="91"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -64930,15 +64716,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="86">
+      <c r="K2" s="87"/>
+      <c r="L2" s="88">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="112"/>
+      <c r="M2" s="89"/>
       <c r="T2" s="20" t="s">
         <v>20</v>
       </c>
@@ -64952,31 +64738,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="107"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="108">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -64985,14 +64771,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="D8" s="94" t="s">
+      <c r="B8" s="115"/>
+      <c r="D8" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="95"/>
+      <c r="E8" s="115"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -65103,10 +64889,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="117"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -65134,10 +64920,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="117"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -65259,99 +65045,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="100" t="s">
+      <c r="B42" s="105"/>
+      <c r="C42" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="103" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="104"/>
-      <c r="L42" s="115" t="s">
+      <c r="J42" s="98"/>
+      <c r="L42" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="115"/>
-      <c r="N42" s="115" t="s">
+      <c r="M42" s="83"/>
+      <c r="N42" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="115"/>
-      <c r="P42" s="115" t="s">
+      <c r="O42" s="83"/>
+      <c r="P42" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="115"/>
-      <c r="R42" s="115" t="s">
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="115"/>
-      <c r="T42" s="115" t="s">
+      <c r="S42" s="83"/>
+      <c r="T42" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="115"/>
-      <c r="V42" s="115" t="s">
+      <c r="U42" s="83"/>
+      <c r="V42" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="115"/>
-      <c r="X42" s="115" t="s">
+      <c r="W42" s="83"/>
+      <c r="X42" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="115"/>
-      <c r="Z42" s="115" t="s">
+      <c r="Y42" s="83"/>
+      <c r="Z42" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="115"/>
-      <c r="AB42" s="115" t="s">
+      <c r="AA42" s="83"/>
+      <c r="AB42" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="115"/>
-      <c r="AD42" s="115" t="s">
+      <c r="AC42" s="83"/>
+      <c r="AD42" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="115"/>
-      <c r="AF42" s="115" t="s">
+      <c r="AE42" s="83"/>
+      <c r="AF42" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="115"/>
-      <c r="AH42" s="115" t="s">
+      <c r="AG42" s="83"/>
+      <c r="AH42" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="115"/>
-      <c r="AJ42" s="115" t="s">
+      <c r="AI42" s="83"/>
+      <c r="AJ42" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="115"/>
-      <c r="AL42" s="115"/>
-      <c r="AM42" s="115"/>
-      <c r="AN42" s="115"/>
-      <c r="AO42" s="115"/>
-      <c r="AP42" s="115"/>
-      <c r="AQ42" s="115"/>
-      <c r="AR42" s="115"/>
-      <c r="AS42" s="115"/>
+      <c r="AK42" s="83"/>
+      <c r="AL42" s="83"/>
+      <c r="AM42" s="83"/>
+      <c r="AN42" s="83"/>
+      <c r="AO42" s="83"/>
+      <c r="AP42" s="83"/>
+      <c r="AQ42" s="83"/>
+      <c r="AR42" s="83"/>
+      <c r="AS42" s="83"/>
       <c r="AT42" s="22"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="83" t="s">
+      <c r="A43" s="101"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="84"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="83" t="s">
+      <c r="D43" s="102"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="84"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="106"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="100"/>
       <c r="L43" s="22" t="s">
         <v>15</v>
       </c>
@@ -65447,17 +65233,17 @@
       <c r="B44" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="98" t="s">
+      <c r="C44" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="99"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="98" t="s">
+      <c r="F44" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="99"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="9" t="s">
         <v>65</v>
       </c>
@@ -67930,13 +67716,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -67951,20 +67744,13 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
